--- a/data/data_He_NatMedicine.xlsx
+++ b/data/data_He_NatMedicine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Dropbox/Taiwan_COVID contact tracing/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Dropbox/Taiwan_COVID contact tracing/!github/COVID19-Replication-He-et-al-2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC111DE-43A8-DD4C-BF69-C0B70AF2E63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C45AC-44F4-5E4F-A31A-BDA7059D019B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="-20580" windowWidth="24000" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -709,6 +709,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1067,11 +1071,11 @@
   <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="5" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
@@ -1079,13 +1083,13 @@
     <col min="7" max="7" width="5.1640625" customWidth="1"/>
     <col min="8" max="10" width="10.83203125" style="1"/>
     <col min="11" max="12" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="9"/>
     <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="4.83203125" style="3" customWidth="1"/>
     <col min="16" max="16" width="5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1126,7 @@
       <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1135,7 +1139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1172,7 +1176,7 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="9">
         <v>43847</v>
       </c>
       <c r="O2" s="3">
@@ -1186,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1211,7 +1215,7 @@
       <c r="J3" s="1">
         <v>43862</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="9">
         <v>43861</v>
       </c>
       <c r="O3" s="3">
@@ -1225,7 +1229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1250,7 +1254,7 @@
       <c r="J4" s="1">
         <v>43856</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="9">
         <v>43859</v>
       </c>
       <c r="O4" s="3">
@@ -1264,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1289,7 +1293,7 @@
       <c r="J5" s="1">
         <v>43858</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="9">
         <v>43859</v>
       </c>
       <c r="O5" s="3">
@@ -1303,7 +1307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1328,7 +1332,7 @@
       <c r="J6" s="1">
         <v>43858</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="9">
         <v>43855</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -1342,7 +1346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1367,7 +1371,7 @@
       <c r="J7" s="1">
         <v>43861</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="9">
         <v>43859</v>
       </c>
       <c r="O7" s="3">
@@ -1381,7 +1385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1406,7 +1410,7 @@
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="9">
         <v>43859</v>
       </c>
       <c r="O8" s="3">
@@ -1420,7 +1424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1445,7 +1449,7 @@
       <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="9">
         <v>43860</v>
       </c>
       <c r="O9" s="3">
@@ -1459,7 +1463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1484,7 +1488,7 @@
       <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="9">
         <v>43873</v>
       </c>
       <c r="O10" s="3">
@@ -1498,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1523,7 +1527,7 @@
       <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="9">
         <v>43874</v>
       </c>
       <c r="O11" s="3">
@@ -1537,7 +1541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1562,7 +1566,7 @@
       <c r="J12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="9">
         <v>43874</v>
       </c>
       <c r="O12" s="3">
@@ -1576,7 +1580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1601,7 +1605,7 @@
       <c r="J13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="9">
         <v>43873</v>
       </c>
       <c r="O13" s="3">
@@ -1615,7 +1619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1640,7 +1644,7 @@
       <c r="J14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="9">
         <v>43874</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -1654,7 +1658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1679,7 +1683,7 @@
       <c r="J15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="9">
         <v>43874</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -1693,7 +1697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1718,7 +1722,7 @@
       <c r="J16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="9">
         <v>43878</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -1732,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1757,7 +1761,7 @@
       <c r="J17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="9">
         <v>43878</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -1771,7 +1775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1796,7 +1800,7 @@
       <c r="J18" s="1">
         <v>43875</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="9">
         <v>43876</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -1810,7 +1814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1835,7 +1839,7 @@
       <c r="J19" s="1">
         <v>43875</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="9">
         <v>43876</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -1849,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1874,7 +1878,7 @@
       <c r="J20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="9">
         <v>43881</v>
       </c>
       <c r="O20" s="3" t="s">
@@ -1888,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1913,7 +1917,7 @@
       <c r="J21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="9">
         <v>43864</v>
       </c>
       <c r="O21" s="3" t="s">
@@ -1927,7 +1931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1952,7 +1956,7 @@
       <c r="J22" s="1">
         <v>43876</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="9">
         <v>43864</v>
       </c>
       <c r="N22" s="1">
@@ -1969,7 +1973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1994,7 +1998,7 @@
       <c r="J23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="9">
         <v>43874</v>
       </c>
       <c r="O23" s="3" t="s">
@@ -2008,7 +2012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2033,7 +2037,7 @@
       <c r="J24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="9">
         <v>43855</v>
       </c>
       <c r="O24" s="3">
@@ -2047,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2072,7 +2076,7 @@
       <c r="J25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="9">
         <v>43851</v>
       </c>
       <c r="O25" s="3" t="s">
@@ -2086,7 +2090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2111,7 +2115,7 @@
       <c r="J26" s="1">
         <v>43877</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="9">
         <v>43867</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -2125,7 +2129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2150,7 +2154,7 @@
       <c r="J27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="9">
         <v>43852</v>
       </c>
       <c r="N27" s="1">
@@ -2167,7 +2171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2192,7 +2196,7 @@
       <c r="J28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="9">
         <v>43858</v>
       </c>
       <c r="O28" s="3" t="s">
@@ -2206,7 +2210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2231,7 +2235,7 @@
       <c r="J29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="9">
         <v>43842</v>
       </c>
       <c r="N29" s="1">
@@ -2248,7 +2252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2273,7 +2277,7 @@
       <c r="J30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="9">
         <v>43852</v>
       </c>
       <c r="O30" s="3" t="s">
@@ -2287,7 +2291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2312,7 +2316,7 @@
       <c r="J31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="9">
         <v>43848</v>
       </c>
       <c r="O31" s="3">
@@ -2326,7 +2330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2351,7 +2355,7 @@
       <c r="J32" s="1">
         <v>43849</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="9">
         <v>43834</v>
       </c>
       <c r="N32" s="1">
@@ -2368,7 +2372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2393,7 +2397,7 @@
       <c r="J33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="9">
         <v>43854</v>
       </c>
       <c r="O33" s="3" t="s">
@@ -2407,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2432,7 +2436,7 @@
       <c r="J34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="9">
         <v>43847</v>
       </c>
       <c r="O34" s="3">
@@ -2446,7 +2450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2471,7 +2475,7 @@
       <c r="J35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="9">
         <v>43856</v>
       </c>
       <c r="O35" s="3">
@@ -2485,7 +2489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2510,7 +2514,7 @@
       <c r="J36" s="1">
         <v>43854</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="9">
         <v>43849</v>
       </c>
       <c r="O36" s="3">
@@ -2524,7 +2528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2549,7 +2553,7 @@
       <c r="J37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="9">
         <v>43859</v>
       </c>
       <c r="O37" s="3">
@@ -2563,7 +2567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2588,7 +2592,7 @@
       <c r="J38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="9">
         <v>43840</v>
       </c>
       <c r="O38" s="3">
@@ -2602,7 +2606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2627,7 +2631,7 @@
       <c r="J39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="9">
         <v>43840</v>
       </c>
       <c r="O39" s="3">
@@ -2641,7 +2645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2666,7 +2670,7 @@
       <c r="J40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="9">
         <v>43845</v>
       </c>
       <c r="O40" s="3">
@@ -2680,7 +2684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2705,7 +2709,7 @@
       <c r="J41" s="1">
         <v>43851</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="9">
         <v>43852</v>
       </c>
       <c r="O41" s="3">
@@ -2719,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2744,7 +2748,7 @@
       <c r="J42" s="1">
         <v>43851</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="9">
         <v>43852</v>
       </c>
       <c r="O42" s="3">
@@ -2758,7 +2762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2783,7 +2787,7 @@
       <c r="J43" s="1">
         <v>43851</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="9">
         <v>43852</v>
       </c>
       <c r="O43" s="3">
@@ -2797,7 +2801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2822,7 +2826,7 @@
       <c r="J44" s="1">
         <v>43851</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="9">
         <v>43852</v>
       </c>
       <c r="O44" s="3">
@@ -2836,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2861,7 +2865,7 @@
       <c r="J45" s="1">
         <v>43851</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="9">
         <v>43852</v>
       </c>
       <c r="O45" s="3">
@@ -2875,7 +2879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2900,7 +2904,7 @@
       <c r="J46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="9">
         <v>43855</v>
       </c>
       <c r="O46" s="3">
@@ -2914,7 +2918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2939,7 +2943,7 @@
       <c r="J47" s="1">
         <v>43855</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="9">
         <v>43859</v>
       </c>
       <c r="O47" s="3">
@@ -2953,7 +2957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2978,7 +2982,7 @@
       <c r="J48" s="1">
         <v>43855</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="9">
         <v>43859</v>
       </c>
       <c r="O48" s="3">
@@ -2992,7 +2996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3017,7 +3021,7 @@
       <c r="J49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="9">
         <v>43859</v>
       </c>
       <c r="O49" s="3">
@@ -3031,7 +3035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3056,7 +3060,7 @@
       <c r="J50" s="1">
         <v>43853</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="9">
         <v>43853</v>
       </c>
       <c r="O50" s="3">
@@ -3070,7 +3074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3095,7 +3099,7 @@
       <c r="J51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="9">
         <v>43860</v>
       </c>
       <c r="O51" s="3">
@@ -3109,7 +3113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3134,7 +3138,7 @@
       <c r="J52" s="1">
         <v>43850</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="9">
         <v>43844</v>
       </c>
       <c r="N52" s="1">
@@ -3151,7 +3155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3176,7 +3180,7 @@
       <c r="J53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="9">
         <v>43854</v>
       </c>
       <c r="O53" s="3">
@@ -3190,7 +3194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3215,7 +3219,7 @@
       <c r="J54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="9">
         <v>43847</v>
       </c>
       <c r="O54" s="3">
@@ -3229,46 +3233,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="55" spans="1:17" s="5" customFormat="1">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="5">
         <v>58</v>
       </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="1">
+      <c r="G55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="4">
         <v>43849</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="4">
         <v>43848</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="4">
         <v>43848</v>
       </c>
-      <c r="M55" s="1">
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4">
         <v>43852</v>
       </c>
-      <c r="O55" s="3">
+      <c r="N55" s="4"/>
+      <c r="O55" s="6">
         <v>70</v>
       </c>
-      <c r="P55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q55">
+      <c r="P55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q55" s="5">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3293,7 +3300,7 @@
       <c r="J56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="9">
         <v>43846</v>
       </c>
       <c r="O56" s="3">
@@ -3307,7 +3314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3332,7 +3339,7 @@
       <c r="J57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="9">
         <v>43848</v>
       </c>
       <c r="O57" s="3">
@@ -3346,7 +3353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3371,7 +3378,7 @@
       <c r="J58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="9">
         <v>43848</v>
       </c>
       <c r="O58" s="3">
@@ -3385,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3410,7 +3417,7 @@
       <c r="J59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" s="9">
         <v>43848</v>
       </c>
       <c r="O59" s="3">
@@ -3424,7 +3431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3449,7 +3456,7 @@
       <c r="J60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60" s="9">
         <v>43848</v>
       </c>
       <c r="O60" s="3">
@@ -3463,7 +3470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3488,7 +3495,7 @@
       <c r="J61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61" s="9">
         <v>43859</v>
       </c>
       <c r="O61" s="3">
@@ -3502,7 +3509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3527,7 +3534,7 @@
       <c r="J62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="9">
         <v>43851</v>
       </c>
       <c r="N62" s="1">
@@ -3544,7 +3551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3569,7 +3576,7 @@
       <c r="J63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63" s="9">
         <v>43851</v>
       </c>
       <c r="N63" s="1">
@@ -3586,7 +3593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3611,7 +3618,7 @@
       <c r="J64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64" s="9">
         <v>43840</v>
       </c>
       <c r="N64" s="1">
@@ -3628,7 +3635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3653,7 +3660,7 @@
       <c r="J65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65" s="9">
         <v>43854</v>
       </c>
       <c r="O65" s="3">
@@ -3667,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3692,7 +3699,7 @@
       <c r="J66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66" s="9">
         <v>43854</v>
       </c>
       <c r="O66" s="3">
@@ -3706,7 +3713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3731,7 +3738,7 @@
       <c r="J67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67" s="9">
         <v>43853</v>
       </c>
       <c r="N67" s="1">
@@ -3748,7 +3755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3773,7 +3780,7 @@
       <c r="J68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68" s="9">
         <v>43860</v>
       </c>
       <c r="O68" s="3">
@@ -3787,46 +3794,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69" spans="1:17" s="5" customFormat="1">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D69">
-        <v>33</v>
-      </c>
-      <c r="G69" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="1">
+      <c r="D69" s="5">
+        <v>33</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="4">
         <v>43854</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
       <c r="M69" s="4">
         <v>43858</v>
       </c>
-      <c r="O69" s="3">
+      <c r="N69" s="4"/>
+      <c r="O69" s="6">
         <v>40</v>
       </c>
-      <c r="P69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q69">
+      <c r="P69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q69" s="5">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3851,7 +3861,7 @@
       <c r="J70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70" s="9">
         <v>43856</v>
       </c>
       <c r="O70" s="3" t="s">
@@ -3865,7 +3875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3890,7 +3900,7 @@
       <c r="J71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71" s="9">
         <v>43857</v>
       </c>
       <c r="O71" s="3" t="s">
@@ -3904,7 +3914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3929,7 +3939,7 @@
       <c r="J72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72" s="9">
         <v>43854</v>
       </c>
       <c r="O72" s="3">
@@ -3943,7 +3953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3968,7 +3978,7 @@
       <c r="J73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73" s="9">
         <v>43858</v>
       </c>
       <c r="N73" s="1">
@@ -3985,7 +3995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4010,7 +4020,7 @@
       <c r="J74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74" s="9">
         <v>43870</v>
       </c>
       <c r="O74" s="3">
@@ -4024,53 +4034,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+    <row r="75" spans="1:17" s="8" customFormat="1">
+      <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="8">
         <v>63</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="4">
+      <c r="G75" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="9">
         <v>43838</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4">
+      <c r="I75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9">
         <v>43831</v>
       </c>
-      <c r="N75" s="4">
+      <c r="N75" s="9">
         <v>43834</v>
       </c>
-      <c r="O75" s="6" t="s">
+      <c r="O75" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P75" s="7" t="s">
+      <c r="P75" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4095,7 +4103,7 @@
       <c r="J76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76" s="9">
         <v>43885</v>
       </c>
       <c r="O76" s="3" t="s">
@@ -4109,7 +4117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4134,7 +4142,7 @@
       <c r="J77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77" s="9">
         <v>43890</v>
       </c>
       <c r="O77" s="3" t="s">
@@ -4148,7 +4156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4173,7 +4181,7 @@
       <c r="J78" s="1">
         <v>43886</v>
       </c>
-      <c r="M78" s="4">
+      <c r="M78" s="9">
         <v>43881</v>
       </c>
       <c r="O78" s="3" t="s">
@@ -4200,7 +4208,7 @@
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
@@ -4212,7 +4220,7 @@
     <col min="15" max="15" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
